--- a/RawData/Pre Study/(22-10) Motivations and exercise user study (Responses).xlsx
+++ b/RawData/Pre Study/(22-10) Motivations and exercise user study (Responses).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\COMPSCI 715\Data\RawData\Pre Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\CS715-data-analysis\RawData\Pre Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE13482-F681-4FA6-9F95-293BD6571FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF4054-4B1E-4D4E-AD2C-187A6B207E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>Timestamp</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No, i am a VR beast</t>
-  </si>
-  <si>
     <t>18-20</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>31-60 minutes</t>
   </si>
   <si>
-    <t>Ann Lowe</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -116,55 +110,19 @@
     <t xml:space="preserve">Yes, only when doing moving in game. </t>
   </si>
   <si>
-    <t>Benjamin Qian</t>
-  </si>
-  <si>
     <t>0-1</t>
   </si>
   <si>
     <t>1-15 minutes</t>
   </si>
   <si>
-    <t>John M</t>
-  </si>
-  <si>
     <t>Slight motion sickness occasionally.</t>
   </si>
   <si>
-    <t>Stephen Fang</t>
-  </si>
-  <si>
     <t>24-26</t>
   </si>
   <si>
-    <t>Jacob Sun</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Amanda Lowe</t>
-  </si>
-  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>yifeng pan</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>Owen Li</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Eason</t>
   </si>
 </sst>
 </file>
@@ -530,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:L16" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:L14" headerRowDxfId="0">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is your gender?"/>
@@ -770,11 +728,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,7 +782,7 @@
     </row>
     <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45939.654781365738</v>
+        <v>45943.661068877314</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -833,16 +791,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
         <v>4</v>
@@ -854,91 +812,88 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>45939.661631458337</v>
+        <v>45943.691984861114</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="9">
         <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45943.661068877314</v>
+        <v>45945.555216689812</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45943.691984861114</v>
+        <v>45945.589820555557</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -947,130 +902,130 @@
         <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45945.555216689812</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="A6" s="7">
+        <v>45945.652425381944</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45945.679349456019</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>45945.589820555557</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="L7" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>45945.652425381944</v>
+        <v>45946.59591103009</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>15</v>
@@ -1078,72 +1033,69 @@
       <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>34</v>
+      <c r="L8" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>45945.679349456019</v>
+        <v>45951.524505729161</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="L9" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>45946.59591103009</v>
+        <v>45951.54757480324</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>15</v>
@@ -1151,66 +1103,69 @@
       <c r="J10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>38</v>
+      <c r="L10" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>45951.524505729161</v>
+        <v>45951.602819004635</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>45951.54757480324</v>
+        <v>45951.63287212963</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="8">
         <v>2</v>
@@ -1219,15 +1174,18 @@
         <v>15</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="9">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>45951.602819004635</v>
+        <v>45952.57282616898</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1236,10 +1194,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>5</v>
@@ -1248,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>15</v>
@@ -1256,119 +1214,43 @@
       <c r="J13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>42</v>
+      <c r="L13" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>45951.63287212963</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="12">
+        <v>45952.614018078704</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="8">
-        <v>5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45952.57282616898</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="15">
         <v>13</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>45952.614018078704</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="13">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13">
-        <v>5</v>
-      </c>
-      <c r="H16" s="13">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1326,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="5">
         <v>5</v>
@@ -1465,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1482,10 +1364,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="13">
         <v>4</v>
@@ -1503,10 +1385,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
